--- a/Data/Habitat_Data/Channel_Unit_RAW.xlsx
+++ b/Data/Habitat_Data/Channel_Unit_RAW.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Habitat_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA98E70-772F-4778-9C9B-6604972D8819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF03B7CC-8618-4D12-8130-1BE43A9A365F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="324" windowWidth="18588" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21288" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$741</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$738</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="876">
   <si>
     <t>ReachName</t>
   </si>
@@ -2652,22 +2652,16 @@
     <t>Y Creek 02</t>
   </si>
   <si>
-    <t>Okanogan 16-46.1</t>
-  </si>
-  <si>
-    <t>Okanogan 16-46.2</t>
-  </si>
-  <si>
-    <t>Stapaloop 16-1.1</t>
-  </si>
-  <si>
-    <t>Stapaloop 16-1.2</t>
-  </si>
-  <si>
-    <t>Swimptkin 16-1.1</t>
-  </si>
-  <si>
-    <t>Swimptkin 16-1.2</t>
+    <t>Stapaloop 16-1</t>
+  </si>
+  <si>
+    <t>Swimptkin 16-1</t>
+  </si>
+  <si>
+    <t>Okanogan 16-46</t>
+  </si>
+  <si>
+    <t>data entered in the Glide_Habitat_Prcnt_INDICATOR_3 column was defined as a Run in the Nason Creek Habitat Assessment</t>
   </si>
 </sst>
 </file>
@@ -2714,7 +2708,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3054,16 +3048,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M741"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M738"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C742" sqref="C742"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L446" sqref="L446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="13" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3107,7 +3104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3121,7 +3118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3135,7 +3132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3158,7 +3155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3184,7 +3181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3244,7 +3241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3272,7 +3269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3300,7 +3297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3314,7 +3311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3342,7 +3339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3356,7 +3353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3398,7 +3395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3424,7 +3421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3482,7 +3479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3540,7 +3537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -3656,7 +3653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3685,7 +3682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -3746,7 +3743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -3760,7 +3757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3788,7 +3785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -3802,7 +3799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3844,7 +3841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3932,7 +3929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3946,7 +3943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -3960,7 +3957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -3988,7 +3985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -4002,7 +3999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -4034,7 +4031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -4048,7 +4045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -4062,7 +4059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -4076,7 +4073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -4118,7 +4115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -4132,7 +4129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -4160,7 +4157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -4174,7 +4171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -4188,7 +4185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -4216,7 +4213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -4227,7 +4224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -4241,7 +4238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -4255,7 +4252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -4269,7 +4266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -4311,7 +4308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -4325,7 +4322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -4339,7 +4336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -4353,7 +4350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -4367,7 +4364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -4399,7 +4396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -4431,7 +4428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -4463,7 +4460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -4495,7 +4492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -4527,7 +4524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -4541,7 +4538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>122</v>
       </c>
@@ -4569,7 +4566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -4583,7 +4580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -4597,7 +4594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -4611,7 +4608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -4625,7 +4622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>130</v>
       </c>
@@ -4639,7 +4636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -4653,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>132</v>
       </c>
@@ -4667,7 +4664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -4695,7 +4692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -4709,7 +4706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>136</v>
       </c>
@@ -4723,7 +4720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -4737,7 +4734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -4751,7 +4748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -4765,7 +4762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>140</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -4793,7 +4790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -4807,7 +4804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -4821,7 +4818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>146</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -4877,7 +4874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>154</v>
       </c>
@@ -4919,7 +4916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -4965,7 +4962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>158</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>159</v>
       </c>
@@ -5034,7 +5031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>160</v>
       </c>
@@ -5057,7 +5054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -5080,7 +5077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>162</v>
       </c>
@@ -5106,7 +5103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>163</v>
       </c>
@@ -5120,7 +5117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>164</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>166</v>
       </c>
@@ -5162,7 +5159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -5176,7 +5173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -5190,7 +5187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>170</v>
       </c>
@@ -5204,7 +5201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>171</v>
       </c>
@@ -5218,7 +5215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>172</v>
       </c>
@@ -5232,7 +5229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>173</v>
       </c>
@@ -5246,7 +5243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>175</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>177</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>178</v>
       </c>
@@ -5288,7 +5285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>179</v>
       </c>
@@ -5302,7 +5299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>180</v>
       </c>
@@ -5316,7 +5313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>181</v>
       </c>
@@ -5330,7 +5327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>182</v>
       </c>
@@ -5344,7 +5341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>183</v>
       </c>
@@ -5358,7 +5355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -5372,7 +5369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>185</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>186</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -5426,7 +5423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -5440,7 +5437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -5465,7 +5462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>193</v>
       </c>
@@ -5479,7 +5476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -5493,7 +5490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>196</v>
       </c>
@@ -5507,7 +5504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>198</v>
       </c>
@@ -5521,7 +5518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>199</v>
       </c>
@@ -5535,7 +5532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -5549,7 +5546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>203</v>
       </c>
@@ -5577,7 +5574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>205</v>
       </c>
@@ -5591,7 +5588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>207</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>208</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -5633,7 +5630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>210</v>
       </c>
@@ -5647,7 +5644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>212</v>
       </c>
@@ -5661,7 +5658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>213</v>
       </c>
@@ -5675,7 +5672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>214</v>
       </c>
@@ -5689,7 +5686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>215</v>
       </c>
@@ -5703,7 +5700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -5731,7 +5728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>219</v>
       </c>
@@ -5745,7 +5742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -5759,7 +5756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -5773,7 +5770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -5801,7 +5798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -5836,7 +5833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>226</v>
       </c>
@@ -5871,7 +5868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>227</v>
       </c>
@@ -5894,7 +5891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>228</v>
       </c>
@@ -5929,7 +5926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>229</v>
       </c>
@@ -5949,7 +5946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>230</v>
       </c>
@@ -5984,7 +5981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>231</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>232</v>
       </c>
@@ -6054,7 +6051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>233</v>
       </c>
@@ -6089,7 +6086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>234</v>
       </c>
@@ -6124,7 +6121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>235</v>
       </c>
@@ -6138,7 +6135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>236</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>238</v>
       </c>
@@ -6166,7 +6163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>239</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>240</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>241</v>
       </c>
@@ -6208,7 +6205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>242</v>
       </c>
@@ -6222,7 +6219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>243</v>
       </c>
@@ -6236,7 +6233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>244</v>
       </c>
@@ -6250,7 +6247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>246</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>247</v>
       </c>
@@ -6278,7 +6275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>248</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>249</v>
       </c>
@@ -6306,7 +6303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>250</v>
       </c>
@@ -6326,7 +6323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>251</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>253</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>254</v>
       </c>
@@ -6422,7 +6419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>255</v>
       </c>
@@ -6451,7 +6448,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>256</v>
       </c>
@@ -6465,7 +6462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>257</v>
       </c>
@@ -6500,7 +6497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>258</v>
       </c>
@@ -6535,7 +6532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>259</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>260</v>
       </c>
@@ -6584,7 +6581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>262</v>
       </c>
@@ -6598,7 +6595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>263</v>
       </c>
@@ -6612,7 +6609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>267</v>
       </c>
@@ -6640,7 +6637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>268</v>
       </c>
@@ -6654,7 +6651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>270</v>
       </c>
@@ -6668,7 +6665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>272</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>273</v>
       </c>
@@ -6696,7 +6693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>274</v>
       </c>
@@ -6710,7 +6707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>275</v>
       </c>
@@ -6724,7 +6721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>276</v>
       </c>
@@ -6738,7 +6735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>277</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>278</v>
       </c>
@@ -6766,7 +6763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>279</v>
       </c>
@@ -6780,7 +6777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>280</v>
       </c>
@@ -6794,7 +6791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>281</v>
       </c>
@@ -6808,7 +6805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>283</v>
       </c>
@@ -6822,7 +6819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>285</v>
       </c>
@@ -6836,7 +6833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>286</v>
       </c>
@@ -6850,7 +6847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>287</v>
       </c>
@@ -6864,7 +6861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>288</v>
       </c>
@@ -6878,7 +6875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>289</v>
       </c>
@@ -6892,7 +6889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>290</v>
       </c>
@@ -6915,7 +6912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>291</v>
       </c>
@@ -6929,7 +6926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>292</v>
       </c>
@@ -6943,7 +6940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>294</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>295</v>
       </c>
@@ -6971,7 +6968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>296</v>
       </c>
@@ -6985,7 +6982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>297</v>
       </c>
@@ -6999,7 +6996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>298</v>
       </c>
@@ -7013,7 +7010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>299</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>300</v>
       </c>
@@ -7041,7 +7038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>301</v>
       </c>
@@ -7055,7 +7052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>302</v>
       </c>
@@ -7069,7 +7066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>304</v>
       </c>
@@ -7083,7 +7080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>305</v>
       </c>
@@ -7097,7 +7094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>306</v>
       </c>
@@ -7111,7 +7108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>307</v>
       </c>
@@ -7125,7 +7122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>308</v>
       </c>
@@ -7139,7 +7136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>309</v>
       </c>
@@ -7153,7 +7150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>311</v>
       </c>
@@ -7167,7 +7164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>312</v>
       </c>
@@ -7181,7 +7178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>313</v>
       </c>
@@ -7195,7 +7192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>314</v>
       </c>
@@ -7215,7 +7212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>315</v>
       </c>
@@ -7229,7 +7226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>316</v>
       </c>
@@ -7243,7 +7240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>317</v>
       </c>
@@ -7257,7 +7254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>319</v>
       </c>
@@ -7271,7 +7268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>321</v>
       </c>
@@ -7285,7 +7282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>322</v>
       </c>
@@ -7299,7 +7296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>323</v>
       </c>
@@ -7313,7 +7310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>325</v>
       </c>
@@ -7327,7 +7324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>326</v>
       </c>
@@ -7341,7 +7338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>327</v>
       </c>
@@ -7355,7 +7352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>328</v>
       </c>
@@ -7369,7 +7366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>329</v>
       </c>
@@ -7383,7 +7380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>330</v>
       </c>
@@ -7397,7 +7394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>331</v>
       </c>
@@ -7411,7 +7408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>332</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>334</v>
       </c>
@@ -7439,7 +7436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>335</v>
       </c>
@@ -7453,7 +7450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>336</v>
       </c>
@@ -7467,7 +7464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>337</v>
       </c>
@@ -7481,7 +7478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>338</v>
       </c>
@@ -7495,7 +7492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>339</v>
       </c>
@@ -7509,7 +7506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>340</v>
       </c>
@@ -7523,7 +7520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>341</v>
       </c>
@@ -7537,7 +7534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>342</v>
       </c>
@@ -7551,7 +7548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>343</v>
       </c>
@@ -7565,7 +7562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>344</v>
       </c>
@@ -7579,7 +7576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>345</v>
       </c>
@@ -7593,7 +7590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>346</v>
       </c>
@@ -7607,7 +7604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>347</v>
       </c>
@@ -7621,7 +7618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>348</v>
       </c>
@@ -7635,7 +7632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>349</v>
       </c>
@@ -7649,7 +7646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>351</v>
       </c>
@@ -7663,7 +7660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>352</v>
       </c>
@@ -7677,7 +7674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>354</v>
       </c>
@@ -7691,7 +7688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>355</v>
       </c>
@@ -7705,7 +7702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>357</v>
       </c>
@@ -7719,7 +7716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>359</v>
       </c>
@@ -7733,7 +7730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>360</v>
       </c>
@@ -7747,7 +7744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>361</v>
       </c>
@@ -7761,7 +7758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>362</v>
       </c>
@@ -7775,7 +7772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>363</v>
       </c>
@@ -7789,7 +7786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>364</v>
       </c>
@@ -7803,7 +7800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>365</v>
       </c>
@@ -7817,7 +7814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>366</v>
       </c>
@@ -7831,7 +7828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>367</v>
       </c>
@@ -7845,7 +7842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>368</v>
       </c>
@@ -7859,7 +7856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>369</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>370</v>
       </c>
@@ -7905,7 +7902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>371</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>372</v>
       </c>
@@ -7951,7 +7948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>373</v>
       </c>
@@ -7965,7 +7962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -7979,7 +7976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>375</v>
       </c>
@@ -7993,7 +7990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>376</v>
       </c>
@@ -8007,7 +8004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>378</v>
       </c>
@@ -8021,7 +8018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>379</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>380</v>
       </c>
@@ -8049,7 +8046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>381</v>
       </c>
@@ -8063,7 +8060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>382</v>
       </c>
@@ -8077,7 +8074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>383</v>
       </c>
@@ -8091,7 +8088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>384</v>
       </c>
@@ -8105,7 +8102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>385</v>
       </c>
@@ -8119,7 +8116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>386</v>
       </c>
@@ -8133,7 +8130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>387</v>
       </c>
@@ -8147,7 +8144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>388</v>
       </c>
@@ -8161,7 +8158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>389</v>
       </c>
@@ -8175,7 +8172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>390</v>
       </c>
@@ -8189,7 +8186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>391</v>
       </c>
@@ -8203,7 +8200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>392</v>
       </c>
@@ -8217,7 +8214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>393</v>
       </c>
@@ -8231,7 +8228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>394</v>
       </c>
@@ -8245,7 +8242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>395</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>397</v>
       </c>
@@ -8273,7 +8270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>398</v>
       </c>
@@ -8287,7 +8284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>399</v>
       </c>
@@ -8301,7 +8298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>400</v>
       </c>
@@ -8315,7 +8312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>401</v>
       </c>
@@ -8329,7 +8326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>402</v>
       </c>
@@ -8343,7 +8340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>404</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>405</v>
       </c>
@@ -8371,7 +8368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>406</v>
       </c>
@@ -8385,7 +8382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>408</v>
       </c>
@@ -8399,7 +8396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>409</v>
       </c>
@@ -8413,7 +8410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>410</v>
       </c>
@@ -8427,7 +8424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>411</v>
       </c>
@@ -8441,7 +8438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>412</v>
       </c>
@@ -8455,7 +8452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>414</v>
       </c>
@@ -8469,7 +8466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>416</v>
       </c>
@@ -8483,7 +8480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>417</v>
       </c>
@@ -8497,7 +8494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>418</v>
       </c>
@@ -8511,7 +8508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>419</v>
       </c>
@@ -8525,7 +8522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>421</v>
       </c>
@@ -8539,7 +8536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>422</v>
       </c>
@@ -8553,7 +8550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>423</v>
       </c>
@@ -8567,7 +8564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>424</v>
       </c>
@@ -8581,7 +8578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>425</v>
       </c>
@@ -8595,7 +8592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>426</v>
       </c>
@@ -8609,7 +8606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>427</v>
       </c>
@@ -8623,7 +8620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>428</v>
       </c>
@@ -8637,7 +8634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>429</v>
       </c>
@@ -8651,7 +8648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>431</v>
       </c>
@@ -8665,7 +8662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>432</v>
       </c>
@@ -8679,7 +8676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>433</v>
       </c>
@@ -8693,7 +8690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>434</v>
       </c>
@@ -8716,7 +8713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>435</v>
       </c>
@@ -8739,7 +8736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>436</v>
       </c>
@@ -8762,7 +8759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>437</v>
       </c>
@@ -8785,7 +8782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>438</v>
       </c>
@@ -8799,7 +8796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>439</v>
       </c>
@@ -8813,7 +8810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>440</v>
       </c>
@@ -8827,7 +8824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>441</v>
       </c>
@@ -8841,7 +8838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>442</v>
       </c>
@@ -8855,7 +8852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>443</v>
       </c>
@@ -8869,7 +8866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>444</v>
       </c>
@@ -8883,7 +8880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>445</v>
       </c>
@@ -8897,7 +8894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>446</v>
       </c>
@@ -8911,7 +8908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>447</v>
       </c>
@@ -8925,7 +8922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>448</v>
       </c>
@@ -8939,7 +8936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>449</v>
       </c>
@@ -8953,7 +8950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>450</v>
       </c>
@@ -8967,7 +8964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>452</v>
       </c>
@@ -8981,7 +8978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>453</v>
       </c>
@@ -8995,7 +8992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>454</v>
       </c>
@@ -9009,7 +9006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>455</v>
       </c>
@@ -9023,7 +9020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>456</v>
       </c>
@@ -9037,7 +9034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>457</v>
       </c>
@@ -9051,7 +9048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>458</v>
       </c>
@@ -9065,7 +9062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>459</v>
       </c>
@@ -9079,7 +9076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>461</v>
       </c>
@@ -9093,7 +9090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>462</v>
       </c>
@@ -9107,7 +9104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>463</v>
       </c>
@@ -9121,7 +9118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>464</v>
       </c>
@@ -9135,7 +9132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>465</v>
       </c>
@@ -9149,7 +9146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>466</v>
       </c>
@@ -9184,7 +9181,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>467</v>
       </c>
@@ -9213,7 +9210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>468</v>
       </c>
@@ -9239,7 +9236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>469</v>
       </c>
@@ -9265,7 +9262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>470</v>
       </c>
@@ -9291,7 +9288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>471</v>
       </c>
@@ -9317,7 +9314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>472</v>
       </c>
@@ -9343,7 +9340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>473</v>
       </c>
@@ -9369,7 +9366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>474</v>
       </c>
@@ -9395,7 +9392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>475</v>
       </c>
@@ -9421,7 +9418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>476</v>
       </c>
@@ -9447,7 +9444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>477</v>
       </c>
@@ -9461,7 +9458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>479</v>
       </c>
@@ -9475,7 +9472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>480</v>
       </c>
@@ -9489,7 +9486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>481</v>
       </c>
@@ -9503,7 +9500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>482</v>
       </c>
@@ -9517,7 +9514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>483</v>
       </c>
@@ -9531,7 +9528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>484</v>
       </c>
@@ -9557,7 +9554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>486</v>
       </c>
@@ -9583,7 +9580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>487</v>
       </c>
@@ -9609,7 +9606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>488</v>
       </c>
@@ -9638,7 +9635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>489</v>
       </c>
@@ -9664,7 +9661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>491</v>
       </c>
@@ -9690,7 +9687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>493</v>
       </c>
@@ -9704,7 +9701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>494</v>
       </c>
@@ -9718,7 +9715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>495</v>
       </c>
@@ -9732,7 +9729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>496</v>
       </c>
@@ -9746,7 +9743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>497</v>
       </c>
@@ -9760,7 +9757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>499</v>
       </c>
@@ -9774,7 +9771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>500</v>
       </c>
@@ -9788,7 +9785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>501</v>
       </c>
@@ -9802,7 +9799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>502</v>
       </c>
@@ -9816,7 +9813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>503</v>
       </c>
@@ -9830,7 +9827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>504</v>
       </c>
@@ -9859,7 +9856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>505</v>
       </c>
@@ -9888,7 +9885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>506</v>
       </c>
@@ -9917,7 +9914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>507</v>
       </c>
@@ -9931,7 +9928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>508</v>
       </c>
@@ -9945,7 +9942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>509</v>
       </c>
@@ -9959,7 +9956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>510</v>
       </c>
@@ -9973,7 +9970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>511</v>
       </c>
@@ -9987,7 +9984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>512</v>
       </c>
@@ -10001,7 +9998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>513</v>
       </c>
@@ -10015,7 +10012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>514</v>
       </c>
@@ -10029,7 +10026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>515</v>
       </c>
@@ -10043,7 +10040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>516</v>
       </c>
@@ -10057,7 +10054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>517</v>
       </c>
@@ -10071,7 +10068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>518</v>
       </c>
@@ -10085,7 +10082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>519</v>
       </c>
@@ -10099,7 +10096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>520</v>
       </c>
@@ -10113,7 +10110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>521</v>
       </c>
@@ -10127,7 +10124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>522</v>
       </c>
@@ -10141,7 +10138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>523</v>
       </c>
@@ -10155,7 +10152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>524</v>
       </c>
@@ -10169,7 +10166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>526</v>
       </c>
@@ -10183,7 +10180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>527</v>
       </c>
@@ -10197,7 +10194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>528</v>
       </c>
@@ -10211,7 +10208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>529</v>
       </c>
@@ -10225,7 +10222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>531</v>
       </c>
@@ -10239,7 +10236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>532</v>
       </c>
@@ -10253,7 +10250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>534</v>
       </c>
@@ -10543,8 +10540,20 @@
       <c r="C445" t="s">
         <v>91</v>
       </c>
+      <c r="D445">
+        <v>22.3</v>
+      </c>
+      <c r="F445">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G445">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I445">
+        <v>0.5</v>
+      </c>
       <c r="L445" t="s">
-        <v>16</v>
+        <v>875</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.3">
@@ -10711,7 +10720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>558</v>
       </c>
@@ -10725,7 +10734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>560</v>
       </c>
@@ -10739,7 +10748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>561</v>
       </c>
@@ -10753,7 +10762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>562</v>
       </c>
@@ -10767,7 +10776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>563</v>
       </c>
@@ -10781,7 +10790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>564</v>
       </c>
@@ -10795,7 +10804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>566</v>
       </c>
@@ -10809,7 +10818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>567</v>
       </c>
@@ -10823,7 +10832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>569</v>
       </c>
@@ -10837,7 +10846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>570</v>
       </c>
@@ -10851,7 +10860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>571</v>
       </c>
@@ -10865,7 +10874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>572</v>
       </c>
@@ -10879,7 +10888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>573</v>
       </c>
@@ -10893,7 +10902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>574</v>
       </c>
@@ -10907,7 +10916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>575</v>
       </c>
@@ -10921,7 +10930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>577</v>
       </c>
@@ -10935,7 +10944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>578</v>
       </c>
@@ -10949,7 +10958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>579</v>
       </c>
@@ -10963,7 +10972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>580</v>
       </c>
@@ -10977,7 +10986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>581</v>
       </c>
@@ -10991,7 +11000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>582</v>
       </c>
@@ -11005,7 +11014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>583</v>
       </c>
@@ -11019,7 +11028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>584</v>
       </c>
@@ -11033,7 +11042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>585</v>
       </c>
@@ -11047,7 +11056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>587</v>
       </c>
@@ -11061,7 +11070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>588</v>
       </c>
@@ -11075,7 +11084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>590</v>
       </c>
@@ -11089,7 +11098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>592</v>
       </c>
@@ -11103,7 +11112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>593</v>
       </c>
@@ -11117,7 +11126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>594</v>
       </c>
@@ -11131,7 +11140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>595</v>
       </c>
@@ -11145,7 +11154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>596</v>
       </c>
@@ -11159,7 +11168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>597</v>
       </c>
@@ -11173,7 +11182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>598</v>
       </c>
@@ -11187,7 +11196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>599</v>
       </c>
@@ -11201,7 +11210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>600</v>
       </c>
@@ -11215,7 +11224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>601</v>
       </c>
@@ -11229,7 +11238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>602</v>
       </c>
@@ -11243,7 +11252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>603</v>
       </c>
@@ -11257,7 +11266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>604</v>
       </c>
@@ -11271,7 +11280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>605</v>
       </c>
@@ -11285,7 +11294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>606</v>
       </c>
@@ -11299,7 +11308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>607</v>
       </c>
@@ -11313,7 +11322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>608</v>
       </c>
@@ -11327,7 +11336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>609</v>
       </c>
@@ -11341,7 +11350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>610</v>
       </c>
@@ -11355,7 +11364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>611</v>
       </c>
@@ -11369,23 +11378,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B503" t="s">
         <v>14</v>
       </c>
       <c r="C503" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="L503" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>873</v>
+        <v>612</v>
       </c>
       <c r="B504" t="s">
         <v>14</v>
@@ -11397,9 +11406,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B505" t="s">
         <v>14</v>
@@ -11411,23 +11420,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B506" t="s">
         <v>14</v>
       </c>
       <c r="C506" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="L506" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B507" t="s">
         <v>14</v>
@@ -11439,9 +11448,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B508" t="s">
         <v>14</v>
@@ -11453,23 +11462,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B509" t="s">
         <v>14</v>
       </c>
       <c r="C509" t="s">
-        <v>568</v>
+        <v>147</v>
       </c>
       <c r="L509" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B510" t="s">
         <v>14</v>
@@ -11481,37 +11490,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B511" t="s">
         <v>14</v>
       </c>
       <c r="C511" t="s">
-        <v>147</v>
+        <v>589</v>
       </c>
       <c r="L511" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B512" t="s">
         <v>14</v>
       </c>
       <c r="C512" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="L512" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B513" t="s">
         <v>14</v>
@@ -11523,23 +11532,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B514" t="s">
         <v>14</v>
       </c>
       <c r="C514" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L514" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B515" t="s">
         <v>14</v>
@@ -11551,9 +11560,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B516" t="s">
         <v>14</v>
@@ -11565,23 +11574,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B517" t="s">
         <v>14</v>
       </c>
       <c r="C517" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="L517" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B518" t="s">
         <v>14</v>
@@ -11593,9 +11602,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B519" t="s">
         <v>14</v>
@@ -11607,9 +11616,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B520" t="s">
         <v>14</v>
@@ -11621,23 +11630,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B521" t="s">
         <v>14</v>
       </c>
       <c r="C521" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L521" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B522" t="s">
         <v>14</v>
@@ -11649,9 +11658,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B523" t="s">
         <v>14</v>
@@ -11663,9 +11672,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B524" t="s">
         <v>14</v>
@@ -11677,9 +11686,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B525" t="s">
         <v>14</v>
@@ -11691,9 +11700,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B526" t="s">
         <v>14</v>
@@ -11705,9 +11714,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B527" t="s">
         <v>14</v>
@@ -11719,9 +11728,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B528" t="s">
         <v>14</v>
@@ -11733,51 +11742,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B529" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C529" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="L529" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B530" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C530" t="s">
-        <v>641</v>
+        <v>129</v>
       </c>
       <c r="L530" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B531" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C531" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="D531">
+        <v>88.2</v>
+      </c>
+      <c r="G531">
+        <v>11.8</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
       </c>
       <c r="L531" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B532" t="s">
         <v>19</v>
@@ -11786,21 +11804,21 @@
         <v>101</v>
       </c>
       <c r="D532">
-        <v>88.2</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G532">
-        <v>11.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I532">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L532" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B533" t="s">
         <v>19</v>
@@ -11821,9 +11839,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B534" t="s">
         <v>19</v>
@@ -11844,9 +11862,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B535" t="s">
         <v>19</v>
@@ -11855,21 +11873,21 @@
         <v>101</v>
       </c>
       <c r="D535">
-        <v>79.400000000000006</v>
+        <v>73</v>
       </c>
       <c r="G535">
-        <v>19.100000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="I535">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="L535" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B536" t="s">
         <v>19</v>
@@ -11878,21 +11896,21 @@
         <v>101</v>
       </c>
       <c r="D536">
-        <v>73</v>
+        <v>66.5</v>
       </c>
       <c r="G536">
-        <v>21.4</v>
+        <v>31.8</v>
       </c>
       <c r="I536">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="L536" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B537" t="s">
         <v>19</v>
@@ -11901,21 +11919,21 @@
         <v>101</v>
       </c>
       <c r="D537">
-        <v>66.5</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G537">
-        <v>31.8</v>
+        <v>21.1</v>
       </c>
       <c r="I537">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="L537" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B538" t="s">
         <v>19</v>
@@ -11923,36 +11941,27 @@
       <c r="C538" t="s">
         <v>101</v>
       </c>
-      <c r="D538">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="G538">
-        <v>21.1</v>
-      </c>
-      <c r="I538">
-        <v>0</v>
-      </c>
       <c r="L538" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B539" t="s">
         <v>19</v>
       </c>
       <c r="C539" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="L539" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B540" t="s">
         <v>19</v>
@@ -11964,9 +11973,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B541" t="s">
         <v>19</v>
@@ -11978,9 +11987,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B542" t="s">
         <v>19</v>
@@ -11992,9 +12001,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B543" t="s">
         <v>19</v>
@@ -12006,9 +12015,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B544" t="s">
         <v>19</v>
@@ -12020,9 +12029,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B545" t="s">
         <v>19</v>
@@ -12034,9 +12043,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B546" t="s">
         <v>19</v>
@@ -12048,9 +12057,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B547" t="s">
         <v>19</v>
@@ -12062,23 +12071,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B548" t="s">
         <v>19</v>
       </c>
       <c r="C548" t="s">
-        <v>261</v>
+        <v>661</v>
       </c>
       <c r="L548" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B549" t="s">
         <v>19</v>
@@ -12090,65 +12099,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B550" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C550" t="s">
-        <v>661</v>
+        <v>211</v>
       </c>
       <c r="L550" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B551" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C551" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="L551" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B552" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C552" t="s">
-        <v>65</v>
+        <v>666</v>
       </c>
       <c r="L552" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B553" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C553" t="s">
-        <v>666</v>
+        <v>245</v>
       </c>
       <c r="L553" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B554" t="s">
         <v>82</v>
@@ -12160,9 +12169,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B555" t="s">
         <v>82</v>
@@ -12174,9 +12183,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B556" t="s">
         <v>82</v>
@@ -12188,9 +12197,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B557" t="s">
         <v>82</v>
@@ -12202,65 +12211,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B558" t="s">
         <v>82</v>
       </c>
       <c r="C558" t="s">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="L558" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B559" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C559" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="L559" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B560" t="s">
         <v>19</v>
       </c>
       <c r="C560" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="L560" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B561" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C561" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="L561" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B562" t="s">
         <v>23</v>
@@ -12272,51 +12281,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B563" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C563" t="s">
-        <v>310</v>
+        <v>678</v>
       </c>
       <c r="L563" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B564" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C564" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="L564" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B565" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C565" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L565" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B566" t="s">
         <v>82</v>
@@ -12328,9 +12337,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B567" t="s">
         <v>82</v>
@@ -12342,9 +12351,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B568" t="s">
         <v>82</v>
@@ -12356,9 +12365,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B569" t="s">
         <v>82</v>
@@ -12370,9 +12379,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B570" t="s">
         <v>82</v>
@@ -12384,23 +12393,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B571" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C571" t="s">
-        <v>682</v>
+        <v>91</v>
       </c>
       <c r="L571" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B572" t="s">
         <v>19</v>
@@ -12412,9 +12421,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B573" t="s">
         <v>19</v>
@@ -12426,23 +12435,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B574" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C574" t="s">
-        <v>91</v>
+        <v>490</v>
       </c>
       <c r="L574" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B575" t="s">
         <v>23</v>
@@ -12454,37 +12463,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B576" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C576" t="s">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="L576" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B577" t="s">
         <v>19</v>
       </c>
       <c r="C577" t="s">
-        <v>167</v>
+        <v>695</v>
       </c>
       <c r="L577" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B578" t="s">
         <v>19</v>
@@ -12496,37 +12505,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B579" t="s">
         <v>19</v>
       </c>
       <c r="C579" t="s">
-        <v>695</v>
+        <v>261</v>
       </c>
       <c r="L579" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B580" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C580" t="s">
-        <v>261</v>
+        <v>699</v>
       </c>
       <c r="L580" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B581" t="s">
         <v>14</v>
@@ -12538,9 +12547,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B582" t="s">
         <v>14</v>
@@ -12552,9 +12561,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B583" t="s">
         <v>14</v>
@@ -12566,9 +12575,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B584" t="s">
         <v>14</v>
@@ -12580,9 +12589,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B585" t="s">
         <v>14</v>
@@ -12594,9 +12603,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B586" t="s">
         <v>14</v>
@@ -12608,9 +12617,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B587" t="s">
         <v>14</v>
@@ -12622,9 +12631,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B588" t="s">
         <v>14</v>
@@ -12636,9 +12645,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B589" t="s">
         <v>14</v>
@@ -12650,9 +12659,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B590" t="s">
         <v>14</v>
@@ -12664,9 +12673,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B591" t="s">
         <v>14</v>
@@ -12678,9 +12687,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B592" t="s">
         <v>14</v>
@@ -12692,23 +12701,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B593" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C593" t="s">
-        <v>699</v>
+        <v>403</v>
       </c>
       <c r="L593" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B594" t="s">
         <v>19</v>
@@ -12720,79 +12729,79 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B595" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C595" t="s">
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="L595" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B596" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C596" t="s">
-        <v>103</v>
+        <v>716</v>
       </c>
       <c r="L596" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B597" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C597" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="L597" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B598" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C598" t="s">
-        <v>680</v>
+        <v>589</v>
       </c>
       <c r="L598" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B599" t="s">
         <v>14</v>
       </c>
       <c r="C599" t="s">
-        <v>589</v>
+        <v>720</v>
       </c>
       <c r="L599" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B600" t="s">
         <v>14</v>
@@ -12804,9 +12813,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B601" t="s">
         <v>14</v>
@@ -12818,9 +12827,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B602" t="s">
         <v>14</v>
@@ -12832,9 +12841,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B603" t="s">
         <v>14</v>
@@ -12846,37 +12855,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B604" t="s">
         <v>14</v>
       </c>
       <c r="C604" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="L604" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B605" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C605" t="s">
-        <v>726</v>
+        <v>150</v>
       </c>
       <c r="L605" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B606" t="s">
         <v>19</v>
@@ -12888,9 +12897,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B607" t="s">
         <v>19</v>
@@ -12902,9 +12911,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B608" t="s">
         <v>19</v>
@@ -12916,23 +12925,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B609" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C609" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="L609" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B610" t="s">
         <v>23</v>
@@ -12944,9 +12953,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B611" t="s">
         <v>23</v>
@@ -12958,9 +12967,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B612" t="s">
         <v>23</v>
@@ -12972,9 +12981,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B613" t="s">
         <v>23</v>
@@ -12986,51 +12995,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B614" t="s">
         <v>23</v>
       </c>
       <c r="C614" t="s">
-        <v>63</v>
+        <v>737</v>
       </c>
       <c r="L614" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B615" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C615" t="s">
-        <v>737</v>
+        <v>174</v>
       </c>
       <c r="L615" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B616" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C616" t="s">
-        <v>174</v>
+        <v>740</v>
       </c>
       <c r="L616" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B617" t="s">
         <v>23</v>
@@ -13042,23 +13051,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>741</v>
+        <v>872</v>
       </c>
       <c r="B618" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C618" t="s">
-        <v>740</v>
+        <v>624</v>
       </c>
       <c r="L618" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>874</v>
+        <v>742</v>
       </c>
       <c r="B619" t="s">
         <v>14</v>
@@ -13070,37 +13079,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>875</v>
+        <v>743</v>
       </c>
       <c r="B620" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C620" t="s">
-        <v>624</v>
+        <v>245</v>
       </c>
       <c r="L620" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B621" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C621" t="s">
-        <v>624</v>
+        <v>245</v>
       </c>
       <c r="L621" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B622" t="s">
         <v>82</v>
@@ -13112,107 +13121,107 @@
         <v>16</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B623" t="s">
+        <v>19</v>
+      </c>
+      <c r="C623" t="s">
+        <v>174</v>
+      </c>
+      <c r="L623" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>873</v>
+      </c>
+      <c r="B624" t="s">
+        <v>14</v>
+      </c>
+      <c r="C624" t="s">
+        <v>624</v>
+      </c>
+      <c r="L624" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>747</v>
+      </c>
+      <c r="B625" t="s">
         <v>82</v>
       </c>
-      <c r="C623" t="s">
-        <v>245</v>
-      </c>
-      <c r="L623" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A624" t="s">
-        <v>745</v>
-      </c>
-      <c r="B624" t="s">
+      <c r="C625" t="s">
+        <v>682</v>
+      </c>
+      <c r="L625" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>748</v>
+      </c>
+      <c r="B626" t="s">
         <v>82</v>
       </c>
-      <c r="C624" t="s">
-        <v>245</v>
-      </c>
-      <c r="L624" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A625" t="s">
-        <v>746</v>
-      </c>
-      <c r="B625" t="s">
-        <v>19</v>
-      </c>
-      <c r="C625" t="s">
-        <v>174</v>
-      </c>
-      <c r="L625" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A626" t="s">
-        <v>876</v>
-      </c>
-      <c r="B626" t="s">
-        <v>14</v>
-      </c>
       <c r="C626" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
       <c r="L626" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
       <c r="B627" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C627" t="s">
-        <v>624</v>
+        <v>350</v>
       </c>
       <c r="L627" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B628" t="s">
         <v>82</v>
       </c>
       <c r="C628" t="s">
-        <v>682</v>
+        <v>350</v>
       </c>
       <c r="L628" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B629" t="s">
         <v>82</v>
       </c>
       <c r="C629" t="s">
-        <v>682</v>
+        <v>350</v>
       </c>
       <c r="L629" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B630" t="s">
         <v>82</v>
@@ -13224,149 +13233,149 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B631" t="s">
         <v>82</v>
       </c>
       <c r="C631" t="s">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="L631" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B632" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C632" t="s">
-        <v>350</v>
+        <v>559</v>
       </c>
       <c r="L632" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B633" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C633" t="s">
-        <v>350</v>
+        <v>756</v>
       </c>
       <c r="L633" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B634" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C634" t="s">
-        <v>225</v>
+        <v>628</v>
       </c>
       <c r="L634" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B635" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C635" t="s">
-        <v>559</v>
+        <v>261</v>
       </c>
       <c r="L635" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B636" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C636" t="s">
-        <v>756</v>
+        <v>261</v>
       </c>
       <c r="L636" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B637" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C637" t="s">
-        <v>628</v>
+        <v>261</v>
       </c>
       <c r="L637" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B638" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C638" t="s">
-        <v>261</v>
+        <v>492</v>
       </c>
       <c r="L638" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B639" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C639" t="s">
-        <v>261</v>
+        <v>492</v>
       </c>
       <c r="L639" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B640" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C640" t="s">
-        <v>261</v>
+        <v>492</v>
       </c>
       <c r="L640" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B641" t="s">
         <v>23</v>
@@ -13378,125 +13387,164 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B642" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C642" t="s">
-        <v>492</v>
+        <v>766</v>
       </c>
       <c r="L642" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B643" t="s">
         <v>23</v>
       </c>
       <c r="C643" t="s">
-        <v>492</v>
+        <v>768</v>
+      </c>
+      <c r="D643">
+        <v>2.8</v>
+      </c>
+      <c r="E643">
+        <v>47.2</v>
+      </c>
+      <c r="G643">
+        <v>14.6</v>
+      </c>
+      <c r="H643">
+        <v>14.9</v>
+      </c>
+      <c r="I643">
+        <v>0</v>
+      </c>
+      <c r="J643">
+        <v>16.5</v>
       </c>
       <c r="L643" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B644" t="s">
         <v>23</v>
       </c>
       <c r="C644" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="L644" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B645" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C645" t="s">
-        <v>766</v>
+        <v>565</v>
       </c>
       <c r="L645" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B646" t="s">
         <v>23</v>
       </c>
       <c r="C646" t="s">
-        <v>768</v>
+        <v>666</v>
       </c>
       <c r="D646">
-        <v>2.8</v>
-      </c>
-      <c r="E646">
-        <v>47.2</v>
+        <v>30</v>
+      </c>
+      <c r="F646">
+        <v>6</v>
       </c>
       <c r="G646">
-        <v>14.6</v>
-      </c>
-      <c r="H646">
-        <v>14.9</v>
+        <v>56</v>
       </c>
       <c r="I646">
-        <v>0</v>
-      </c>
-      <c r="J646">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="L646" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M646" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B647" t="s">
         <v>23</v>
       </c>
       <c r="C647" t="s">
-        <v>565</v>
+        <v>666</v>
+      </c>
+      <c r="D647">
+        <v>36</v>
+      </c>
+      <c r="F647">
+        <v>6</v>
+      </c>
+      <c r="G647">
+        <v>47</v>
+      </c>
+      <c r="I647">
+        <v>11</v>
       </c>
       <c r="L647" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B648" t="s">
         <v>23</v>
       </c>
       <c r="C648" t="s">
-        <v>565</v>
+        <v>666</v>
+      </c>
+      <c r="D648">
+        <v>60</v>
+      </c>
+      <c r="F648">
+        <v>11</v>
+      </c>
+      <c r="G648">
+        <v>25</v>
+      </c>
+      <c r="I648">
+        <v>4</v>
       </c>
       <c r="L648" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B649" t="s">
         <v>23</v>
@@ -13505,27 +13553,24 @@
         <v>666</v>
       </c>
       <c r="D649">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F649">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G649">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I649">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L649" t="s">
         <v>16</v>
       </c>
-      <c r="M649" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B650" t="s">
         <v>23</v>
@@ -13534,24 +13579,24 @@
         <v>666</v>
       </c>
       <c r="D650">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F650">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G650">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I650">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L650" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B651" t="s">
         <v>23</v>
@@ -13560,24 +13605,27 @@
         <v>666</v>
       </c>
       <c r="D651">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F651">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G651">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I651">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L651" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M651" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B652" t="s">
         <v>23</v>
@@ -13585,25 +13633,13 @@
       <c r="C652" t="s">
         <v>666</v>
       </c>
-      <c r="D652">
-        <v>60</v>
-      </c>
-      <c r="F652">
-        <v>11</v>
-      </c>
-      <c r="G652">
-        <v>25</v>
-      </c>
-      <c r="I652">
-        <v>4</v>
-      </c>
       <c r="L652" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B653" t="s">
         <v>23</v>
@@ -13612,24 +13648,33 @@
         <v>666</v>
       </c>
       <c r="D653">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="E653">
+        <v>0</v>
       </c>
       <c r="F653">
         <v>11</v>
       </c>
       <c r="G653">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
       </c>
       <c r="I653">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J653">
+        <v>0</v>
       </c>
       <c r="L653" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B654" t="s">
         <v>23</v>
@@ -13638,27 +13683,33 @@
         <v>666</v>
       </c>
       <c r="D654">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="E654">
+        <v>0</v>
       </c>
       <c r="F654">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G654">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
       </c>
       <c r="I654">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="J654">
+        <v>0</v>
       </c>
       <c r="L654" t="s">
         <v>16</v>
       </c>
-      <c r="M654" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="655" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B655" t="s">
         <v>23</v>
@@ -13666,13 +13717,34 @@
       <c r="C655" t="s">
         <v>666</v>
       </c>
+      <c r="D655">
+        <v>69</v>
+      </c>
+      <c r="E655">
+        <v>0</v>
+      </c>
+      <c r="F655">
+        <v>15</v>
+      </c>
+      <c r="G655">
+        <v>14</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+      <c r="I655">
+        <v>2</v>
+      </c>
+      <c r="J655">
+        <v>0</v>
+      </c>
       <c r="L655" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B656" t="s">
         <v>23</v>
@@ -13681,22 +13753,22 @@
         <v>666</v>
       </c>
       <c r="D656">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E656">
         <v>0</v>
       </c>
       <c r="F656">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G656">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H656">
         <v>0</v>
       </c>
       <c r="I656">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J656">
         <v>0</v>
@@ -13705,33 +13777,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B657" t="s">
         <v>23</v>
       </c>
       <c r="C657" t="s">
-        <v>666</v>
+        <v>103</v>
       </c>
       <c r="D657">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E657">
         <v>0</v>
       </c>
       <c r="F657">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G657">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H657">
         <v>0</v>
       </c>
       <c r="I657">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J657">
         <v>0</v>
@@ -13740,33 +13812,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B658" t="s">
         <v>23</v>
       </c>
       <c r="C658" t="s">
-        <v>666</v>
+        <v>103</v>
       </c>
       <c r="D658">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E658">
         <v>0</v>
       </c>
       <c r="F658">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G658">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H658">
         <v>0</v>
       </c>
       <c r="I658">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J658">
         <v>0</v>
@@ -13775,15 +13847,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B659" t="s">
         <v>23</v>
       </c>
       <c r="C659" t="s">
-        <v>666</v>
+        <v>103</v>
       </c>
       <c r="D659">
         <v>69</v>
@@ -13795,13 +13867,13 @@
         <v>15</v>
       </c>
       <c r="G659">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H659">
         <v>0</v>
       </c>
       <c r="I659">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J659">
         <v>0</v>
@@ -13810,33 +13882,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B660" t="s">
         <v>23</v>
       </c>
       <c r="C660" t="s">
-        <v>103</v>
+        <v>786</v>
       </c>
       <c r="D660">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E660">
         <v>0</v>
       </c>
       <c r="F660">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G660">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H660">
         <v>0</v>
       </c>
       <c r="I660">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J660">
         <v>0</v>
@@ -13845,33 +13917,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B661" t="s">
         <v>23</v>
       </c>
       <c r="C661" t="s">
-        <v>103</v>
+        <v>786</v>
       </c>
       <c r="D661">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E661">
         <v>0</v>
       </c>
       <c r="F661">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G661">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H661">
         <v>0</v>
       </c>
       <c r="I661">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J661">
         <v>0</v>
@@ -13880,9 +13952,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B662" t="s">
         <v>23</v>
@@ -13890,132 +13962,69 @@
       <c r="C662" t="s">
         <v>103</v>
       </c>
-      <c r="D662">
-        <v>69</v>
-      </c>
-      <c r="E662">
-        <v>0</v>
-      </c>
-      <c r="F662">
-        <v>15</v>
-      </c>
-      <c r="G662">
-        <v>15</v>
-      </c>
-      <c r="H662">
-        <v>0</v>
-      </c>
-      <c r="I662">
-        <v>1</v>
-      </c>
-      <c r="J662">
-        <v>0</v>
-      </c>
       <c r="L662" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B663" t="s">
         <v>23</v>
       </c>
       <c r="C663" t="s">
-        <v>786</v>
-      </c>
-      <c r="D663">
-        <v>69</v>
-      </c>
-      <c r="E663">
-        <v>0</v>
-      </c>
-      <c r="F663">
-        <v>15</v>
-      </c>
-      <c r="G663">
-        <v>15</v>
-      </c>
-      <c r="H663">
-        <v>0</v>
-      </c>
-      <c r="I663">
-        <v>1</v>
-      </c>
-      <c r="J663">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L663" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B664" t="s">
         <v>23</v>
       </c>
       <c r="C664" t="s">
-        <v>786</v>
-      </c>
-      <c r="D664">
-        <v>69</v>
-      </c>
-      <c r="E664">
-        <v>0</v>
-      </c>
-      <c r="F664">
-        <v>15</v>
-      </c>
-      <c r="G664">
-        <v>15</v>
-      </c>
-      <c r="H664">
-        <v>0</v>
-      </c>
-      <c r="I664">
-        <v>1</v>
-      </c>
-      <c r="J664">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="L664" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B665" t="s">
         <v>23</v>
       </c>
       <c r="C665" t="s">
-        <v>103</v>
+        <v>680</v>
       </c>
       <c r="L665" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B666" t="s">
         <v>23</v>
       </c>
       <c r="C666" t="s">
-        <v>103</v>
+        <v>680</v>
       </c>
       <c r="L666" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B667" t="s">
         <v>23</v>
@@ -14027,149 +14036,194 @@
         <v>16</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B668" t="s">
         <v>23</v>
       </c>
       <c r="C668" t="s">
-        <v>680</v>
+        <v>565</v>
       </c>
       <c r="L668" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B669" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C669" t="s">
-        <v>680</v>
+        <v>245</v>
       </c>
       <c r="L669" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B670" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C670" t="s">
-        <v>680</v>
+        <v>797</v>
       </c>
       <c r="L670" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B671" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C671" t="s">
-        <v>565</v>
+        <v>797</v>
       </c>
       <c r="L671" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B672" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C672" t="s">
-        <v>245</v>
+        <v>797</v>
       </c>
       <c r="L672" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B673" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C673" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="L673" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B674" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C674" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="L674" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B675" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C675" t="s">
-        <v>797</v>
+        <v>40</v>
+      </c>
+      <c r="D675">
+        <v>10</v>
+      </c>
+      <c r="F675">
+        <v>26</v>
+      </c>
+      <c r="G675">
+        <v>40</v>
+      </c>
+      <c r="I675">
+        <v>24</v>
       </c>
       <c r="L675" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M675" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B676" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C676" t="s">
-        <v>786</v>
+        <v>40</v>
+      </c>
+      <c r="D676">
+        <v>34</v>
+      </c>
+      <c r="F676">
+        <v>47</v>
+      </c>
+      <c r="G676">
+        <v>13</v>
+      </c>
+      <c r="I676">
+        <v>6</v>
       </c>
       <c r="L676" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M676" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B677" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C677" t="s">
-        <v>786</v>
+        <v>40</v>
+      </c>
+      <c r="D677">
+        <v>31</v>
+      </c>
+      <c r="F677">
+        <v>23</v>
+      </c>
+      <c r="G677">
+        <v>27</v>
+      </c>
+      <c r="I677">
+        <v>19</v>
       </c>
       <c r="L677" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M677" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B678" t="s">
         <v>19</v>
@@ -14178,16 +14232,16 @@
         <v>40</v>
       </c>
       <c r="D678">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F678">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G678">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I678">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L678" t="s">
         <v>16</v>
@@ -14196,9 +14250,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B679" t="s">
         <v>19</v>
@@ -14207,16 +14261,16 @@
         <v>40</v>
       </c>
       <c r="D679">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F679">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G679">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I679">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L679" t="s">
         <v>16</v>
@@ -14225,9 +14279,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B680" t="s">
         <v>19</v>
@@ -14236,16 +14290,16 @@
         <v>40</v>
       </c>
       <c r="D680">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F680">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G680">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I680">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L680" t="s">
         <v>16</v>
@@ -14254,9 +14308,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B681" t="s">
         <v>19</v>
@@ -14265,16 +14319,16 @@
         <v>40</v>
       </c>
       <c r="D681">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F681">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G681">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I681">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L681" t="s">
         <v>16</v>
@@ -14283,9 +14337,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B682" t="s">
         <v>19</v>
@@ -14294,16 +14348,16 @@
         <v>40</v>
       </c>
       <c r="D682">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F682">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G682">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I682">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L682" t="s">
         <v>16</v>
@@ -14312,9 +14366,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B683" t="s">
         <v>19</v>
@@ -14323,13 +14377,13 @@
         <v>40</v>
       </c>
       <c r="D683">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F683">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G683">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I683">
         <v>0</v>
@@ -14341,9 +14395,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B684" t="s">
         <v>19</v>
@@ -14352,16 +14406,16 @@
         <v>40</v>
       </c>
       <c r="D684">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F684">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G684">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I684">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L684" t="s">
         <v>16</v>
@@ -14370,9 +14424,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B685" t="s">
         <v>19</v>
@@ -14381,16 +14435,16 @@
         <v>40</v>
       </c>
       <c r="D685">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F685">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G685">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I685">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L685" t="s">
         <v>16</v>
@@ -14399,9 +14453,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B686" t="s">
         <v>19</v>
@@ -14410,16 +14464,16 @@
         <v>40</v>
       </c>
       <c r="D686">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F686">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G686">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I686">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L686" t="s">
         <v>16</v>
@@ -14428,9 +14482,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B687" t="s">
         <v>19</v>
@@ -14439,111 +14493,102 @@
         <v>40</v>
       </c>
       <c r="D687">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F687">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G687">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I687">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L687" t="s">
         <v>16</v>
       </c>
-      <c r="M687" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B688" t="s">
         <v>19</v>
       </c>
       <c r="C688" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="D688">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="E688">
+        <v>0</v>
       </c>
       <c r="F688">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G688">
-        <v>35</v>
-      </c>
-      <c r="I688">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L688" t="s">
         <v>16</v>
       </c>
-      <c r="M688" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B689" t="s">
         <v>19</v>
       </c>
       <c r="C689" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="D689">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="E689">
+        <v>0</v>
       </c>
       <c r="F689">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G689">
-        <v>57</v>
-      </c>
-      <c r="I689">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L689" t="s">
         <v>16</v>
       </c>
-      <c r="M689" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B690" t="s">
         <v>19</v>
       </c>
       <c r="C690" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="D690">
+        <v>42</v>
+      </c>
+      <c r="E690">
         <v>0</v>
       </c>
       <c r="F690">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G690">
-        <v>77</v>
-      </c>
-      <c r="I690">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L690" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B691" t="s">
         <v>19</v>
@@ -14552,24 +14597,24 @@
         <v>197</v>
       </c>
       <c r="D691">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E691">
         <v>0</v>
       </c>
       <c r="F691">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G691">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L691" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B692" t="s">
         <v>19</v>
@@ -14578,128 +14623,128 @@
         <v>197</v>
       </c>
       <c r="D692">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E692">
         <v>0</v>
       </c>
       <c r="F692">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G692">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L692" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B693" t="s">
         <v>19</v>
       </c>
       <c r="C693" t="s">
-        <v>197</v>
+        <v>821</v>
       </c>
       <c r="D693">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E693">
         <v>0</v>
       </c>
       <c r="F693">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G693">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L693" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B694" t="s">
         <v>19</v>
       </c>
       <c r="C694" t="s">
-        <v>197</v>
+        <v>823</v>
       </c>
       <c r="D694">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E694">
         <v>0</v>
       </c>
       <c r="F694">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G694">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="L694" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B695" t="s">
         <v>19</v>
       </c>
       <c r="C695" t="s">
-        <v>197</v>
+        <v>823</v>
       </c>
       <c r="D695">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E695">
         <v>0</v>
       </c>
       <c r="F695">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G695">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L695" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B696" t="s">
         <v>19</v>
       </c>
       <c r="C696" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D696">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F696">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G696">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L696" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B697" t="s">
         <v>19</v>
@@ -14708,24 +14753,24 @@
         <v>823</v>
       </c>
       <c r="D697">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F697">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G697">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L697" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B698" t="s">
         <v>19</v>
@@ -14734,24 +14779,24 @@
         <v>823</v>
       </c>
       <c r="D698">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E698">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F698">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G698">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L698" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B699" t="s">
         <v>19</v>
@@ -14760,102 +14805,102 @@
         <v>823</v>
       </c>
       <c r="D699">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E699">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F699">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G699">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L699" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B700" t="s">
         <v>19</v>
       </c>
       <c r="C700" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="D700">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E700">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F700">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G700">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L700" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B701" t="s">
         <v>19</v>
       </c>
       <c r="C701" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="D701">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E701">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F701">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G701">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L701" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B702" t="s">
         <v>19</v>
       </c>
       <c r="C702" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="D702">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E702">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F702">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G702">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L702" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B703" t="s">
         <v>19</v>
@@ -14864,102 +14909,90 @@
         <v>830</v>
       </c>
       <c r="D703">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E703">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F703">
+        <v>17</v>
+      </c>
+      <c r="G703">
+        <v>21</v>
+      </c>
+      <c r="L703" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>834</v>
+      </c>
+      <c r="B704" t="s">
+        <v>19</v>
+      </c>
+      <c r="C704" t="s">
+        <v>821</v>
+      </c>
+      <c r="D704">
+        <v>16</v>
+      </c>
+      <c r="E704">
+        <v>0</v>
+      </c>
+      <c r="F704">
+        <v>74</v>
+      </c>
+      <c r="G704">
+        <v>10</v>
+      </c>
+      <c r="L704" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>835</v>
+      </c>
+      <c r="B705" t="s">
+        <v>19</v>
+      </c>
+      <c r="C705" t="s">
+        <v>821</v>
+      </c>
+      <c r="D705">
         <v>37</v>
       </c>
-      <c r="G703">
-        <v>18</v>
-      </c>
-      <c r="L703" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A704" t="s">
-        <v>831</v>
-      </c>
-      <c r="B704" t="s">
-        <v>19</v>
-      </c>
-      <c r="C704" t="s">
-        <v>830</v>
-      </c>
-      <c r="D704">
-        <v>47</v>
-      </c>
-      <c r="E704">
-        <v>9</v>
-      </c>
-      <c r="F704">
-        <v>27</v>
-      </c>
-      <c r="G704">
-        <v>17</v>
-      </c>
-      <c r="L704" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A705" t="s">
-        <v>832</v>
-      </c>
-      <c r="B705" t="s">
-        <v>19</v>
-      </c>
-      <c r="C705" t="s">
-        <v>830</v>
-      </c>
-      <c r="D705">
-        <v>59</v>
-      </c>
       <c r="E705">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F705">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G705">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="L705" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B706" t="s">
         <v>19</v>
       </c>
       <c r="C706" t="s">
-        <v>830</v>
-      </c>
-      <c r="D706">
-        <v>59</v>
-      </c>
-      <c r="E706">
-        <v>2</v>
-      </c>
-      <c r="F706">
-        <v>17</v>
-      </c>
-      <c r="G706">
-        <v>21</v>
+        <v>821</v>
       </c>
       <c r="L706" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B707" t="s">
         <v>19</v>
@@ -14967,25 +15000,13 @@
       <c r="C707" t="s">
         <v>821</v>
       </c>
-      <c r="D707">
-        <v>16</v>
-      </c>
-      <c r="E707">
-        <v>0</v>
-      </c>
-      <c r="F707">
-        <v>74</v>
-      </c>
-      <c r="G707">
-        <v>10</v>
-      </c>
       <c r="L707" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B708" t="s">
         <v>19</v>
@@ -14993,25 +15014,13 @@
       <c r="C708" t="s">
         <v>821</v>
       </c>
-      <c r="D708">
-        <v>37</v>
-      </c>
-      <c r="E708">
-        <v>0</v>
-      </c>
-      <c r="F708">
-        <v>0</v>
-      </c>
-      <c r="G708">
-        <v>63</v>
-      </c>
       <c r="L708" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B709" t="s">
         <v>19</v>
@@ -15023,9 +15032,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B710" t="s">
         <v>19</v>
@@ -15037,9 +15046,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B711" t="s">
         <v>19</v>
@@ -15051,65 +15060,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B712" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C712" t="s">
-        <v>821</v>
+        <v>680</v>
       </c>
       <c r="L712" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B713" t="s">
         <v>19</v>
       </c>
       <c r="C713" t="s">
-        <v>821</v>
+        <v>716</v>
       </c>
       <c r="L713" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B714" t="s">
         <v>19</v>
       </c>
       <c r="C714" t="s">
-        <v>821</v>
+        <v>716</v>
       </c>
       <c r="L714" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B715" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C715" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
       <c r="L715" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B716" t="s">
         <v>19</v>
@@ -15121,9 +15130,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B717" t="s">
         <v>19</v>
@@ -15135,9 +15144,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B718" t="s">
         <v>19</v>
@@ -15149,9 +15158,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B719" t="s">
         <v>19</v>
@@ -15163,9 +15172,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B720" t="s">
         <v>19</v>
@@ -15177,9 +15186,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B721" t="s">
         <v>19</v>
@@ -15191,163 +15200,163 @@
         <v>16</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B722" t="s">
         <v>19</v>
       </c>
       <c r="C722" t="s">
-        <v>716</v>
+        <v>853</v>
       </c>
       <c r="L722" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B723" t="s">
         <v>19</v>
       </c>
       <c r="C723" t="s">
-        <v>716</v>
+        <v>551</v>
       </c>
       <c r="L723" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B724" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C724" t="s">
-        <v>716</v>
+        <v>856</v>
       </c>
       <c r="L724" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B725" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C725" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="L725" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B726" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C726" t="s">
-        <v>551</v>
+        <v>856</v>
       </c>
       <c r="L726" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B727" t="s">
         <v>14</v>
       </c>
       <c r="C727" t="s">
-        <v>856</v>
+        <v>589</v>
       </c>
       <c r="L727" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B728" t="s">
         <v>14</v>
       </c>
       <c r="C728" t="s">
-        <v>856</v>
+        <v>589</v>
       </c>
       <c r="L728" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B729" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C729" t="s">
-        <v>856</v>
+        <v>680</v>
       </c>
       <c r="L729" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B730" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C730" t="s">
-        <v>589</v>
+        <v>863</v>
       </c>
       <c r="L730" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B731" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C731" t="s">
-        <v>589</v>
+        <v>863</v>
       </c>
       <c r="L731" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B732" t="s">
         <v>23</v>
       </c>
       <c r="C732" t="s">
-        <v>680</v>
+        <v>863</v>
       </c>
       <c r="L732" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B733" t="s">
         <v>23</v>
@@ -15359,37 +15368,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B734" t="s">
         <v>23</v>
       </c>
-      <c r="C734" t="s">
-        <v>863</v>
-      </c>
       <c r="L734" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B735" t="s">
         <v>23</v>
       </c>
-      <c r="C735" t="s">
-        <v>863</v>
-      </c>
       <c r="L735" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B736" t="s">
         <v>23</v>
@@ -15401,72 +15404,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B737" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C737" t="s">
+        <v>167</v>
       </c>
       <c r="L737" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B738" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C738" t="s">
+        <v>167</v>
       </c>
       <c r="L738" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A739" t="s">
-        <v>869</v>
-      </c>
-      <c r="B739" t="s">
-        <v>23</v>
-      </c>
-      <c r="C739" t="s">
-        <v>863</v>
-      </c>
-      <c r="L739" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A740" t="s">
-        <v>870</v>
-      </c>
-      <c r="B740" t="s">
-        <v>19</v>
-      </c>
-      <c r="C740" t="s">
-        <v>167</v>
-      </c>
-      <c r="L740" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A741" t="s">
-        <v>871</v>
-      </c>
-      <c r="B741" t="s">
-        <v>19</v>
-      </c>
-      <c r="C741" t="s">
-        <v>167</v>
-      </c>
-      <c r="L741" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M741" xr:uid="{8EC127D7-23E8-4720-A66C-A1ACA6E1361D}"/>
+  <autoFilter ref="A1:M738" xr:uid="{8EC127D7-23E8-4720-A66C-A1ACA6E1361D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Nason Creek Lower 01"/>
+        <filter val="Nason Creek Lower 02"/>
+        <filter val="Nason Creek Lower 03"/>
+        <filter val="Nason Creek Lower 04"/>
+        <filter val="Nason Creek Lower 05"/>
+        <filter val="Nason Creek Lower 06"/>
+        <filter val="Nason Creek Lower 07"/>
+        <filter val="Nason Creek Lower 08"/>
+        <filter val="Nason Creek Lower 09"/>
+        <filter val="Nason Creek Lower 10"/>
+        <filter val="Nason Creek Lower 11"/>
+        <filter val="Nason Creek Lower 12"/>
+        <filter val="Nason Creek Lower 13"/>
+        <filter val="Nason Creek Lower 14"/>
+        <filter val="Nason Creek Lower 15"/>
+        <filter val="Nason Creek Upper 01"/>
+        <filter val="Nason Creek Upper 02"/>
+        <filter val="Nason Creek Upper 03"/>
+        <filter val="Nason Creek Upper 04"/>
+        <filter val="Nason Creek Upper 05"/>
+        <filter val="Nason Creek Upper 06"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Habitat_Data/Channel_Unit_RAW.xlsx
+++ b/Data/Habitat_Data/Channel_Unit_RAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Habitat_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25318A03-18BD-4D48-8343-C449CA200F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F672DED-9984-4231-93EB-F66E8B73E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="876">
   <si>
     <t>ReachName</t>
   </si>
@@ -2659,6 +2659,9 @@
   </si>
   <si>
     <t>Salmon 16-10</t>
+  </si>
+  <si>
+    <t>Okanogan-Haynes Creek South</t>
   </si>
 </sst>
 </file>
@@ -3049,7 +3052,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A343" sqref="A343:XFD343"/>
+      <selection pane="bottomLeft" activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11326,7 +11329,7 @@
         <v>14</v>
       </c>
       <c r="C499" t="s">
-        <v>588</v>
+        <v>875</v>
       </c>
       <c r="L499" t="s">
         <v>16</v>
@@ -11340,7 +11343,7 @@
         <v>14</v>
       </c>
       <c r="C500" t="s">
-        <v>588</v>
+        <v>875</v>
       </c>
       <c r="L500" t="s">
         <v>16</v>
@@ -11354,7 +11357,7 @@
         <v>14</v>
       </c>
       <c r="C501" t="s">
-        <v>588</v>
+        <v>875</v>
       </c>
       <c r="L501" t="s">
         <v>16</v>
